--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efemp1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efemp1-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Egfr</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.513507666666667</v>
+        <v>1.648355333333334</v>
       </c>
       <c r="H2">
-        <v>4.540523</v>
+        <v>4.945066000000001</v>
       </c>
       <c r="I2">
-        <v>0.009429085521538602</v>
+        <v>0.01036811509723055</v>
       </c>
       <c r="J2">
-        <v>0.009477654646517668</v>
+        <v>0.01038366718197596</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N2">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O2">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P2">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q2">
-        <v>1.832944558772889</v>
+        <v>1.087607376456222</v>
       </c>
       <c r="R2">
-        <v>16.496501028956</v>
+        <v>9.788466388106002</v>
       </c>
       <c r="S2">
-        <v>0.0001390426684890389</v>
+        <v>7.988358296557973E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001514827336283121</v>
+        <v>8.810207789715561E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.513507666666667</v>
+        <v>1.648355333333334</v>
       </c>
       <c r="H3">
-        <v>4.540523</v>
+        <v>4.945066000000001</v>
       </c>
       <c r="I3">
-        <v>0.009429085521538602</v>
+        <v>0.01036811509723055</v>
       </c>
       <c r="J3">
-        <v>0.009477654646517668</v>
+        <v>0.01038366718197596</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P3">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q3">
-        <v>92.41501927888822</v>
+        <v>100.6488392912831</v>
       </c>
       <c r="R3">
-        <v>831.7351735099941</v>
+        <v>905.8395536215481</v>
       </c>
       <c r="S3">
-        <v>0.007010376188140191</v>
+        <v>0.007392548154750535</v>
       </c>
       <c r="T3">
-        <v>0.007637590390650617</v>
+        <v>0.008153100164134319</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.513507666666667</v>
+        <v>1.648355333333334</v>
       </c>
       <c r="H4">
-        <v>4.540523</v>
+        <v>4.945066000000001</v>
       </c>
       <c r="I4">
-        <v>0.009429085521538602</v>
+        <v>0.01036811509723055</v>
       </c>
       <c r="J4">
-        <v>0.009477654646517668</v>
+        <v>0.01038366718197596</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N4">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O4">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P4">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q4">
-        <v>0.2002037671313333</v>
+        <v>0.2577181585595556</v>
       </c>
       <c r="R4">
-        <v>1.801833904182</v>
+        <v>2.319463427036</v>
       </c>
       <c r="S4">
-        <v>1.518696563421144E-05</v>
+        <v>1.892911941082019E-05</v>
       </c>
       <c r="T4">
-        <v>1.654573444820603E-05</v>
+        <v>2.087656425695398E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.513507666666667</v>
+        <v>1.648355333333334</v>
       </c>
       <c r="H5">
-        <v>4.540523</v>
+        <v>4.945066000000001</v>
       </c>
       <c r="I5">
-        <v>0.009429085521538602</v>
+        <v>0.01036811509723055</v>
       </c>
       <c r="J5">
-        <v>0.009477654646517668</v>
+        <v>0.01038366718197596</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N5">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O5">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P5">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q5">
-        <v>28.860208942266</v>
+        <v>38.92810268508234</v>
       </c>
       <c r="R5">
-        <v>173.161253653596</v>
+        <v>233.568616110494</v>
       </c>
       <c r="S5">
-        <v>0.002189264506270913</v>
+        <v>0.002859226948854326</v>
       </c>
       <c r="T5">
-        <v>0.001590091136048159</v>
+        <v>0.002102257860935379</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.513507666666667</v>
+        <v>1.648355333333334</v>
       </c>
       <c r="H6">
-        <v>4.540523</v>
+        <v>4.945066000000001</v>
       </c>
       <c r="I6">
-        <v>0.009429085521538602</v>
+        <v>0.01036811509723055</v>
       </c>
       <c r="J6">
-        <v>0.009477654646517668</v>
+        <v>0.01038366718197596</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N6">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O6">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P6">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q6">
-        <v>0.991532169602</v>
+        <v>0.2386324016066667</v>
       </c>
       <c r="R6">
-        <v>8.923789526418</v>
+        <v>2.14769161446</v>
       </c>
       <c r="S6">
-        <v>7.521519300424761E-05</v>
+        <v>1.752729124928752E-05</v>
       </c>
       <c r="T6">
-        <v>8.194465174237312E-05</v>
+        <v>1.933051475215157E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -853,13 +853,13 @@
         <v>156.5335616666667</v>
       </c>
       <c r="H7">
-        <v>469.6006850000001</v>
+        <v>469.600685</v>
       </c>
       <c r="I7">
-        <v>0.9751971347437531</v>
+        <v>0.9845923091457839</v>
       </c>
       <c r="J7">
-        <v>0.9802203654068331</v>
+        <v>0.9860691892621716</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N7">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O7">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P7">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q7">
-        <v>189.5711177692023</v>
+        <v>103.2829832796761</v>
       </c>
       <c r="R7">
-        <v>1706.14005992282</v>
+        <v>929.546849517085</v>
       </c>
       <c r="S7">
-        <v>0.01438039899075075</v>
+        <v>0.007586023175603837</v>
       </c>
       <c r="T7">
-        <v>0.0156670047652061</v>
+        <v>0.008366480069311032</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -915,13 +915,13 @@
         <v>156.5335616666667</v>
       </c>
       <c r="H8">
-        <v>469.6006850000001</v>
+        <v>469.600685</v>
       </c>
       <c r="I8">
-        <v>0.9751971347437531</v>
+        <v>0.9845923091457839</v>
       </c>
       <c r="J8">
-        <v>0.9802203654068331</v>
+        <v>0.9860691892621716</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P8">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q8">
-        <v>9557.964216380826</v>
+        <v>9557.964216380824</v>
       </c>
       <c r="R8">
-        <v>86021.67794742744</v>
+        <v>86021.67794742742</v>
       </c>
       <c r="S8">
-        <v>0.7250436700922609</v>
+        <v>0.7020221120135376</v>
       </c>
       <c r="T8">
-        <v>0.7899128975228069</v>
+        <v>0.7742467789006432</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,43 +977,43 @@
         <v>156.5335616666667</v>
       </c>
       <c r="H9">
-        <v>469.6006850000001</v>
+        <v>469.600685</v>
       </c>
       <c r="I9">
-        <v>0.9751971347437531</v>
+        <v>0.9845923091457839</v>
       </c>
       <c r="J9">
-        <v>0.9802203654068331</v>
+        <v>0.9860691892621716</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N9">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O9">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P9">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q9">
-        <v>20.70594647014334</v>
+        <v>24.47381365516777</v>
       </c>
       <c r="R9">
-        <v>186.35351823129</v>
+        <v>220.26432289651</v>
       </c>
       <c r="S9">
-        <v>0.001570702199922157</v>
+        <v>0.001797575086311882</v>
       </c>
       <c r="T9">
-        <v>0.001711231994795677</v>
+        <v>0.001982511229478455</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,13 +1039,13 @@
         <v>156.5335616666667</v>
       </c>
       <c r="H10">
-        <v>469.6006850000001</v>
+        <v>469.600685</v>
       </c>
       <c r="I10">
-        <v>0.9751971347437531</v>
+        <v>0.9845923091457839</v>
       </c>
       <c r="J10">
-        <v>0.9802203654068331</v>
+        <v>0.9860691892621716</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N10">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O10">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P10">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q10">
-        <v>2984.84863715727</v>
+        <v>3696.748170128569</v>
       </c>
       <c r="R10">
-        <v>17909.09182294362</v>
+        <v>22180.48902077141</v>
       </c>
       <c r="S10">
-        <v>0.2264232802677154</v>
+        <v>0.2715221462670975</v>
       </c>
       <c r="T10">
-        <v>0.1644541579682877</v>
+        <v>0.1996377260772432</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1101,43 +1101,43 @@
         <v>156.5335616666667</v>
       </c>
       <c r="H11">
-        <v>469.6006850000001</v>
+        <v>469.600685</v>
       </c>
       <c r="I11">
-        <v>0.9751971347437531</v>
+        <v>0.9845923091457839</v>
       </c>
       <c r="J11">
-        <v>0.9802203654068331</v>
+        <v>0.9860691892621716</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N11">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O11">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P11">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q11">
-        <v>102.54857998619</v>
+        <v>22.66136372248333</v>
       </c>
       <c r="R11">
-        <v>922.9372198757101</v>
+        <v>203.95227350235</v>
       </c>
       <c r="S11">
-        <v>0.007779083193103942</v>
+        <v>0.001664452603233187</v>
       </c>
       <c r="T11">
-        <v>0.008475073155736656</v>
+        <v>0.00183569298549564</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>2.467719</v>
+        <v>0.08685900000000001</v>
       </c>
       <c r="H12">
-        <v>4.935438</v>
+        <v>0.260577</v>
       </c>
       <c r="I12">
-        <v>0.01537377973470835</v>
+        <v>0.0005463410048907424</v>
       </c>
       <c r="J12">
-        <v>0.01030197994664929</v>
+        <v>0.000547160511766223</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N12">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O12">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P12">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q12">
-        <v>2.988549191556</v>
+        <v>0.057310755273</v>
       </c>
       <c r="R12">
-        <v>17.931295149336</v>
+        <v>0.515796797457</v>
       </c>
       <c r="S12">
-        <v>0.00022670399522771</v>
+        <v>4.209412856860125E-06</v>
       </c>
       <c r="T12">
-        <v>0.0001646580448756783</v>
+        <v>4.642481041144267E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>2.467719</v>
+        <v>0.08685900000000001</v>
       </c>
       <c r="H13">
-        <v>4.935438</v>
+        <v>0.260577</v>
       </c>
       <c r="I13">
-        <v>0.01537377973470835</v>
+        <v>0.0005463410048907424</v>
       </c>
       <c r="J13">
-        <v>0.01030197994664929</v>
+        <v>0.000547160511766223</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>183.180478</v>
       </c>
       <c r="O13">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P13">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q13">
-        <v>150.679315329894</v>
+        <v>5.303624379534</v>
       </c>
       <c r="R13">
-        <v>904.0758919793639</v>
+        <v>47.732619415806</v>
       </c>
       <c r="S13">
-        <v>0.01143016246143084</v>
+        <v>0.0003895454621880537</v>
       </c>
       <c r="T13">
-        <v>0.008301874881473322</v>
+        <v>0.0004296222500305614</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.08685900000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.260577</v>
+      </c>
+      <c r="I14">
+        <v>0.0005463410048907424</v>
+      </c>
+      <c r="J14">
+        <v>0.000547160511766223</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2.467719</v>
-      </c>
-      <c r="H14">
-        <v>4.935438</v>
-      </c>
-      <c r="I14">
-        <v>0.01537377973470835</v>
-      </c>
-      <c r="J14">
-        <v>0.01030197994664929</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N14">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O14">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P14">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q14">
-        <v>0.326424933882</v>
+        <v>0.013580288838</v>
       </c>
       <c r="R14">
-        <v>1.958549603292</v>
+        <v>0.122222599542</v>
       </c>
       <c r="S14">
-        <v>2.476179306737832E-05</v>
+        <v>9.974574957570417E-07</v>
       </c>
       <c r="T14">
-        <v>1.798481067788558E-05</v>
+        <v>1.100076820892643E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.467719</v>
+        <v>0.08685900000000001</v>
       </c>
       <c r="H15">
-        <v>4.935438</v>
+        <v>0.260577</v>
       </c>
       <c r="I15">
-        <v>0.01537377973470835</v>
+        <v>0.0005463410048907424</v>
       </c>
       <c r="J15">
-        <v>0.01030197994664929</v>
+        <v>0.000547160511766223</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N15">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O15">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P15">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q15">
-        <v>47.05551714029399</v>
+        <v>2.0512907640405</v>
       </c>
       <c r="R15">
-        <v>188.222068561176</v>
+        <v>12.307744584243</v>
       </c>
       <c r="S15">
-        <v>0.003569515858514768</v>
+        <v>0.0001506650832671624</v>
       </c>
       <c r="T15">
-        <v>0.0017283903674346</v>
+        <v>0.0001107770951143945</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.08685900000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.260577</v>
+      </c>
+      <c r="I16">
+        <v>0.0005463410048907424</v>
+      </c>
+      <c r="J16">
+        <v>0.000547160511766223</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.467719</v>
-      </c>
-      <c r="H16">
-        <v>4.935438</v>
-      </c>
-      <c r="I16">
-        <v>0.01537377973470835</v>
-      </c>
-      <c r="J16">
-        <v>0.01030197994664929</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N16">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O16">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P16">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q16">
-        <v>1.616657006718</v>
+        <v>0.01257457743</v>
       </c>
       <c r="R16">
-        <v>9.699942040307999</v>
+        <v>0.11317119687</v>
       </c>
       <c r="S16">
-        <v>0.000122635626467644</v>
+        <v>9.235890829092258E-07</v>
       </c>
       <c r="T16">
-        <v>8.907184218779962E-05</v>
+        <v>1.01860875923019E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7143485000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.428697</v>
+      </c>
+      <c r="I17">
+        <v>0.004493234752094711</v>
+      </c>
+      <c r="J17">
+        <v>0.002999983044086268</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6598136666666666</v>
+      </c>
+      <c r="N17">
+        <v>1.979441</v>
+      </c>
+      <c r="O17">
+        <v>0.007704735356083927</v>
+      </c>
+      <c r="P17">
+        <v>0.008484678519943686</v>
+      </c>
+      <c r="Q17">
+        <v>0.4713369030628333</v>
+      </c>
+      <c r="R17">
+        <v>2.828021418377</v>
+      </c>
+      <c r="S17">
+        <v>3.461918465764912E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.545389169435403E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.7143485000000001</v>
+      </c>
+      <c r="H18">
+        <v>1.428697</v>
+      </c>
+      <c r="I18">
+        <v>0.004493234752094711</v>
+      </c>
+      <c r="J18">
+        <v>0.002999983044086268</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>61.06015933333333</v>
+      </c>
+      <c r="N18">
+        <v>183.180478</v>
+      </c>
+      <c r="O18">
+        <v>0.7130079175842846</v>
+      </c>
+      <c r="P18">
+        <v>0.7851850431306702</v>
+      </c>
+      <c r="Q18">
+        <v>43.61823322952767</v>
+      </c>
+      <c r="R18">
+        <v>261.709399377166</v>
+      </c>
+      <c r="S18">
+        <v>0.003203711953808389</v>
+      </c>
+      <c r="T18">
+        <v>0.002355541815862156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.7143485000000001</v>
+      </c>
+      <c r="H19">
+        <v>1.428697</v>
+      </c>
+      <c r="I19">
+        <v>0.004493234752094711</v>
+      </c>
+      <c r="J19">
+        <v>0.002999983044086268</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.1563486666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.469046</v>
+      </c>
+      <c r="O19">
+        <v>0.001825704984300993</v>
+      </c>
+      <c r="P19">
+        <v>0.002010519394650058</v>
+      </c>
+      <c r="Q19">
+        <v>0.1116874355103333</v>
+      </c>
+      <c r="R19">
+        <v>0.670124613062</v>
+      </c>
+      <c r="S19">
+        <v>8.203321082533749E-06</v>
+      </c>
+      <c r="T19">
+        <v>6.031524093756764E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.7143485000000001</v>
+      </c>
+      <c r="H20">
+        <v>1.428697</v>
+      </c>
+      <c r="I20">
+        <v>0.004493234752094711</v>
+      </c>
+      <c r="J20">
+        <v>0.002999983044086268</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>23.6163295</v>
+      </c>
+      <c r="N20">
+        <v>47.232659</v>
+      </c>
+      <c r="O20">
+        <v>0.2757711427815902</v>
+      </c>
+      <c r="P20">
+        <v>0.2024581319964196</v>
+      </c>
+      <c r="Q20">
+        <v>16.87028955383075</v>
+      </c>
+      <c r="R20">
+        <v>67.48115821532301</v>
+      </c>
+      <c r="S20">
+        <v>0.001239104482371113</v>
+      </c>
+      <c r="T20">
+        <v>0.0006073709631266384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.7143485000000001</v>
+      </c>
+      <c r="H21">
+        <v>1.428697</v>
+      </c>
+      <c r="I21">
+        <v>0.004493234752094711</v>
+      </c>
+      <c r="J21">
+        <v>0.002999983044086268</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.14477</v>
+      </c>
+      <c r="N21">
+        <v>0.43431</v>
+      </c>
+      <c r="O21">
+        <v>0.00169049929374041</v>
+      </c>
+      <c r="P21">
+        <v>0.001861626958316384</v>
+      </c>
+      <c r="Q21">
+        <v>0.103416232345</v>
+      </c>
+      <c r="R21">
+        <v>0.62049739407</v>
+      </c>
+      <c r="S21">
+        <v>7.595810175025974E-06</v>
+      </c>
+      <c r="T21">
+        <v>5.584849309363048E-06</v>
       </c>
     </row>
   </sheetData>
